--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-201-R01A 洁净区温湿度记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-201-R01A 洁净区温湿度记录.xlsx
@@ -20,6 +20,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>洁净区温湿度记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32,35 +36,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>记录人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>复核人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CS制袋  LDPE制袋  PTV制袋  BPV制袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工序：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>班次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产工序：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洁净区温湿度记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产指令编号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核员：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录人</t>
+    <t>白班  夜班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对湿度
+≤70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温度
@@ -68,12 +70,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相对湿度
-≤70%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录人备注</t>
+    <t>判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格 不合格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +106,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,24 +151,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -183,23 +163,23 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -208,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,23 +211,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,29 +527,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -583,80 +555,77 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -665,9 +634,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -676,9 +644,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -687,9 +654,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -698,9 +664,8 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -709,9 +674,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -720,9 +684,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -731,9 +694,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -742,9 +704,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -753,9 +714,8 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -764,9 +724,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -775,9 +734,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -786,9 +744,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -797,9 +754,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -808,9 +764,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -819,9 +774,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -830,9 +784,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -841,9 +794,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -852,9 +804,8 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -863,9 +814,8 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -874,9 +824,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -885,9 +834,8 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -896,9 +844,8 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -907,9 +854,8 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -918,9 +864,8 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -929,9 +874,8 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -940,9 +884,8 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -951,38 +894,40 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-201-R01A 洁净区温湿度记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-201-R01A 洁净区温湿度记录.xlsx
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CS制袋  LDPE制袋  PTV制袋  BPV制袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产工序：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
   </si>
   <si>
     <t>合格 不合格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS制袋  LDPE制袋  PTV制袋  BPV制袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,10 +573,10 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -590,19 +590,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
@@ -614,13 +614,13 @@
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
